--- a/medicine/Pharmacie/Inhibiteur_du_TNF/Inhibiteur_du_TNF.xlsx
+++ b/medicine/Pharmacie/Inhibiteur_du_TNF/Inhibiteur_du_TNF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inhibiteurs du TNF (ou inhibiteurs du TNF alpha) sont une classe pharmacologique comprenant des inhibiteurs du facteur de nécrose tumorale (TNF de l'anglais : tumor necrosis factor), une cytokine impliquée dans les processus inflammatoires de la polyarthrite rhumatoïde. Ils peuvent être de type immunoadhésines ou anticorps monoclonaux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs du TNF (ou inhibiteurs du TNF alpha) sont une classe pharmacologique comprenant des inhibiteurs du facteur de nécrose tumorale (TNF de l'anglais : tumor necrosis factor), une cytokine impliquée dans les processus inflammatoires de la polyarthrite rhumatoïde. Ils peuvent être de type immunoadhésines ou anticorps monoclonaux.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Exemples d'inhibiteurs du TNF</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'adalimumab (commercialisé).
 L'étanercept (commercialisé).
@@ -519,9 +533,9 @@
 Le certolizumab pegol (commercialisé).
 L'onercept.
 Le golimumab (commercialisé).
-Le pegsunercept[2].
-L'afelimomab[3].
-Le lenercept (développement arrêté)[4].</t>
+Le pegsunercept.
+L'afelimomab.
+Le lenercept (développement arrêté).</t>
         </is>
       </c>
     </row>
@@ -549,7 +563,9 @@
           <t>Principales contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Infection grave.
 Grossesse et allaitement.
@@ -581,7 +597,9 @@
           <t>Précautions principales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Poursuivre la contraception plusieurs mois après l’arrêt du traitement.
 Surveillance du risque infectieux, en particulier de réactivation de tuberculose latente, favorisée par l'inhibition du TNF-alpha.
@@ -614,9 +632,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les effets secondaires graves, des atteintes cutanées tels qu'un syndrome de Lyell, un érythème polymorphe ou un syndrome de Stevens-Johnson, ont été notifiés à la FDA pour l'infliximab, l'étanercept et l'adalimumab[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les effets secondaires graves, des atteintes cutanées tels qu'un syndrome de Lyell, un érythème polymorphe ou un syndrome de Stevens-Johnson, ont été notifiés à la FDA pour l'infliximab, l'étanercept et l'adalimumab.
 </t>
         </is>
       </c>
